--- a/biology/Histoire de la zoologie et de la botanique/Elizabeth_Anita_Widjaja/Elizabeth_Anita_Widjaja.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Elizabeth_Anita_Widjaja/Elizabeth_Anita_Widjaja.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elizabeth Anita Widjaja (née en 1951) est une chercheuse en taxonomie des bambous à l'Herbarium Bogoriense, Division de la botanique, au Centre de recherche biologique de l'Institut indonésien des sciences à Bogor (Indonésie)[1],[2],[3],[4].
-Elle est particulièrement intéressée par les bambous indonésiens et malais et milite en faveur de la culture du bambou pour la prévention de l'érosion[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elizabeth Anita Widjaja (née en 1951) est une chercheuse en taxonomie des bambous à l'Herbarium Bogoriense, Division de la botanique, au Centre de recherche biologique de l'Institut indonésien des sciences à Bogor (Indonésie).
+Elle est particulièrement intéressée par les bambous indonésiens et malais et milite en faveur de la culture du bambou pour la prévention de l'érosion.
 Elizabeth Anita Widjaja a récemment déclaré, à propos de la culture du bambou comme source de biocarburant, que :
-« C'est une source très importante. En outre, il est facile de travailler avec du bambou, si bien que la recherche sur les biocarburants à base de bambou devrait être moins coûteuse[5]. »
-L'espèce Bambusa lako (bambou noir de Timor) a été décrite et séparée du bambou noir indonésien, Gigantochloa atroviolacea, par Elizabeth Anita Widjaja en 1997, car son apparence (morphologie) est différente[6].
+« C'est une source très importante. En outre, il est facile de travailler avec du bambou, si bien que la recherche sur les biocarburants à base de bambou devrait être moins coûteuse. »
+L'espèce Bambusa lako (bambou noir de Timor) a été décrite et séparée du bambou noir indonésien, Gigantochloa atroviolacea, par Elizabeth Anita Widjaja en 1997, car son apparence (morphologie) est différente.
 </t>
         </is>
       </c>
@@ -515,10 +527,12 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Identikit jenis-jenis bambu di Jawa (Variétés de bambous de Java) w/Kartikasari, S. N. (Sri Nurani), 2001,  (ISBN 979-579-035-8)[7]
-Identikit jenis-jenis bambu di Kepulauan Sunda Kecil (Variétés de bambous des Petites îles de la Sonde) w/Kartikasari, S. N. (Sri Nurani), 2001,  (ISBN 979-579-034-X)[8]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Identikit jenis-jenis bambu di Jawa (Variétés de bambous de Java) w/Kartikasari, S. N. (Sri Nurani), 2001,  (ISBN 979-579-035-8)
+Identikit jenis-jenis bambu di Kepulauan Sunda Kecil (Variétés de bambous des Petites îles de la Sonde) w/Kartikasari, S. N. (Sri Nurani), 2001,  (ISBN 979-579-034-X)</t>
         </is>
       </c>
     </row>
@@ -546,14 +560,16 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Elizabeth Anita Widjaja, sur Wikispecies
-Prix de la Journée internationale de la biodiversité, 1999, décerné par le ministère de l'Environnement de l'Indonésie[4].
-Prix du président de l'Indonésie, 2000[4].
-Médaille Harsberger, pour ses études ethnobotaniques (décernée par la Société des ethnobotanistes, Inde), 2001[4].</t>
+Prix de la Journée internationale de la biodiversité, 1999, décerné par le ministère de l'Environnement de l'Indonésie.
+Prix du président de l'Indonésie, 2000.
+Médaille Harsberger, pour ses études ethnobotaniques (décernée par la Société des ethnobotanistes, Inde), 2001.</t>
         </is>
       </c>
     </row>
